--- a/Nomina_consumo_camion.xlsx
+++ b/Nomina_consumo_camion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Combustible Satelital\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06282C1-2B51-430F-A824-E86FD477E065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4314A92-06ED-4578-8752-B307B5782B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{14A7D35F-6FEB-456B-B63D-83DB7F82056E}"/>
   </bookViews>
@@ -447,7 +447,7 @@
     <t>AF427QV</t>
   </si>
   <si>
-    <t>AF104WW</t>
+    <t>AF140WW</t>
   </si>
 </sst>
 </file>
@@ -808,7 +808,7 @@
   <dimension ref="A1:C117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Nomina_consumo_camion.xlsx
+++ b/Nomina_consumo_camion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Combustible Satelital\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4314A92-06ED-4578-8752-B307B5782B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C544B6-F2BA-4E47-92F4-9102B2F6C811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{14A7D35F-6FEB-456B-B63D-83DB7F82056E}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="142">
   <si>
     <t>PATENTE</t>
   </si>
@@ -448,6 +448,12 @@
   </si>
   <si>
     <t>AF140WW</t>
+  </si>
+  <si>
+    <t>AH890CS</t>
+  </si>
+  <si>
+    <t>MB 2545</t>
   </si>
 </sst>
 </file>
@@ -469,12 +475,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -489,8 +501,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -805,10 +818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63EA6C39-B6A0-4B83-9200-FACD14613F28}">
-  <dimension ref="A1:C117"/>
+  <dimension ref="A1:C118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2104,6 +2117,17 @@
         <v>37</v>
       </c>
     </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B118" t="s">
+        <v>141</v>
+      </c>
+      <c r="C118">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
